--- a/data/raw/election/voters-age-sex-education/2023/Siirt.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Siirt.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:59:11-10461132387" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="36">
   <si>
     <t>Siirt</t>
   </si>
@@ -122,6 +121,12 @@
   </si>
   <si>
     <t>Tillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -655,7 +660,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -669,16 +674,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1003,10 +1017,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N186"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187:C188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,24 +1036,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1140,7 +1154,7 @@
         <v>22</v>
       </c>
       <c r="M6" s="5">
-        <v>1.8460000000000001</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1179,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="M7" s="5">
-        <v>1.7150000000000001</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1220,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="5">
-        <v>1.1000000000000001</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1258,7 +1272,7 @@
       <c r="L9" s="4">
         <v>5</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>998</v>
       </c>
     </row>
@@ -1299,7 +1313,7 @@
       <c r="L10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>931</v>
       </c>
     </row>
@@ -1338,7 +1352,7 @@
       <c r="L11" s="4">
         <v>1</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>727</v>
       </c>
     </row>
@@ -1379,7 +1393,7 @@
       <c r="L12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>718</v>
       </c>
     </row>
@@ -1418,7 +1432,7 @@
       <c r="L13" s="4">
         <v>3</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>599</v>
       </c>
     </row>
@@ -1459,7 +1473,7 @@
       <c r="L14" s="4">
         <v>1</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>587</v>
       </c>
     </row>
@@ -1498,7 +1512,7 @@
       <c r="L15" s="4">
         <v>1</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>628</v>
       </c>
     </row>
@@ -1539,7 +1553,7 @@
       <c r="L16" s="4">
         <v>2</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>646</v>
       </c>
     </row>
@@ -1578,7 +1592,7 @@
       <c r="L17" s="4">
         <v>2</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>550</v>
       </c>
     </row>
@@ -1619,7 +1633,7 @@
       <c r="L18" s="4">
         <v>1</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>460</v>
       </c>
     </row>
@@ -1658,7 +1672,7 @@
       <c r="L19" s="4">
         <v>2</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>408</v>
       </c>
     </row>
@@ -1699,7 +1713,7 @@
       <c r="L20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>435</v>
       </c>
     </row>
@@ -1738,7 +1752,7 @@
       <c r="L21" s="4">
         <v>1</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>373</v>
       </c>
     </row>
@@ -1779,7 +1793,7 @@
       <c r="L22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>349</v>
       </c>
     </row>
@@ -1818,7 +1832,7 @@
       <c r="L23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>318</v>
       </c>
     </row>
@@ -1859,7 +1873,7 @@
       <c r="L24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>299</v>
       </c>
     </row>
@@ -1898,7 +1912,7 @@
       <c r="L25" s="4">
         <v>1</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>340</v>
       </c>
     </row>
@@ -1939,7 +1953,7 @@
       <c r="L26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>201</v>
       </c>
     </row>
@@ -1978,7 +1992,7 @@
       <c r="L27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>296</v>
       </c>
     </row>
@@ -2019,7 +2033,7 @@
       <c r="L28" s="4">
         <v>1</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>217</v>
       </c>
     </row>
@@ -2058,7 +2072,7 @@
       <c r="L29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="6">
         <v>385</v>
       </c>
     </row>
@@ -2066,39 +2080,39 @@
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="5">
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="D30" s="5">
+        <v>1138</v>
+      </c>
+      <c r="D30" s="6">
         <v>987</v>
       </c>
       <c r="E30" s="5">
-        <v>2.1659999999999999</v>
+        <v>2166</v>
       </c>
       <c r="F30" s="5">
-        <v>1.5620000000000001</v>
+        <v>1562</v>
       </c>
       <c r="G30" s="5">
-        <v>3.8780000000000001</v>
+        <v>3878</v>
       </c>
       <c r="H30" s="5">
-        <v>3.806</v>
+        <v>3806</v>
       </c>
       <c r="I30" s="5">
-        <v>1.413</v>
-      </c>
-      <c r="J30" s="5">
+        <v>1413</v>
+      </c>
+      <c r="J30" s="6">
         <v>120</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>8</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>48</v>
       </c>
       <c r="M30" s="5">
-        <v>15.125999999999999</v>
+        <v>15126</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2178,7 +2192,7 @@
         <v>17</v>
       </c>
       <c r="M32" s="5">
-        <v>1.36</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2217,7 +2231,7 @@
         <v>6</v>
       </c>
       <c r="M33" s="5">
-        <v>1.276</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2258,7 +2272,7 @@
         <v>4</v>
       </c>
       <c r="M34" s="5">
-        <v>1.052</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2296,7 +2310,7 @@
       <c r="L35" s="4">
         <v>1</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="6">
         <v>692</v>
       </c>
     </row>
@@ -2337,7 +2351,7 @@
       <c r="L36" s="4">
         <v>5</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="6">
         <v>649</v>
       </c>
     </row>
@@ -2376,7 +2390,7 @@
       <c r="L37" s="4">
         <v>1</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="6">
         <v>544</v>
       </c>
     </row>
@@ -2417,7 +2431,7 @@
       <c r="L38" s="4">
         <v>3</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="6">
         <v>467</v>
       </c>
     </row>
@@ -2456,7 +2470,7 @@
       <c r="L39" s="4">
         <v>3</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="6">
         <v>424</v>
       </c>
     </row>
@@ -2497,7 +2511,7 @@
       <c r="L40" s="4">
         <v>15</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="6">
         <v>464</v>
       </c>
     </row>
@@ -2536,7 +2550,7 @@
       <c r="L41" s="4">
         <v>8</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="6">
         <v>474</v>
       </c>
     </row>
@@ -2577,7 +2591,7 @@
       <c r="L42" s="4">
         <v>9</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="6">
         <v>291</v>
       </c>
     </row>
@@ -2616,7 +2630,7 @@
       <c r="L43" s="4">
         <v>2</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="6">
         <v>280</v>
       </c>
     </row>
@@ -2657,7 +2671,7 @@
       <c r="L44" s="4">
         <v>9</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="6">
         <v>333</v>
       </c>
     </row>
@@ -2696,7 +2710,7 @@
       <c r="L45" s="4">
         <v>7</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="6">
         <v>285</v>
       </c>
     </row>
@@ -2737,7 +2751,7 @@
       <c r="L46" s="4">
         <v>2</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="6">
         <v>286</v>
       </c>
     </row>
@@ -2776,7 +2790,7 @@
       <c r="L47" s="4">
         <v>3</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="6">
         <v>259</v>
       </c>
     </row>
@@ -2817,7 +2831,7 @@
       <c r="L48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="6">
         <v>184</v>
       </c>
     </row>
@@ -2856,7 +2870,7 @@
       <c r="L49" s="4">
         <v>3</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="6">
         <v>195</v>
       </c>
     </row>
@@ -2897,7 +2911,7 @@
       <c r="L50" s="4">
         <v>3</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="6">
         <v>253</v>
       </c>
     </row>
@@ -2936,7 +2950,7 @@
       <c r="L51" s="4">
         <v>7</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="6">
         <v>250</v>
       </c>
     </row>
@@ -2977,7 +2991,7 @@
       <c r="L52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>169</v>
       </c>
     </row>
@@ -3016,7 +3030,7 @@
       <c r="L53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>195</v>
       </c>
     </row>
@@ -3057,7 +3071,7 @@
       <c r="L54" s="4">
         <v>3</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>229</v>
       </c>
     </row>
@@ -3096,7 +3110,7 @@
       <c r="L55" s="4">
         <v>1</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="6">
         <v>393</v>
       </c>
     </row>
@@ -3104,39 +3118,39 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="5">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="D56" s="5">
+        <v>1241</v>
+      </c>
+      <c r="D56" s="6">
         <v>762</v>
       </c>
       <c r="E56" s="5">
-        <v>1.222</v>
-      </c>
-      <c r="F56" s="5">
+        <v>1222</v>
+      </c>
+      <c r="F56" s="6">
         <v>777</v>
       </c>
       <c r="G56" s="5">
-        <v>2.585</v>
+        <v>2585</v>
       </c>
       <c r="H56" s="5">
-        <v>2.8849999999999998</v>
+        <v>2885</v>
       </c>
       <c r="I56" s="5">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="J56" s="5">
+        <v>1324</v>
+      </c>
+      <c r="J56" s="6">
         <v>89</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <v>7</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <v>112</v>
       </c>
       <c r="M56" s="5">
-        <v>11.004</v>
+        <v>11004</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3197,11 +3211,11 @@
       <c r="F58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="H58" s="4">
-        <v>2.5169999999999999</v>
+      <c r="G58" s="9">
+        <v>1530</v>
+      </c>
+      <c r="H58" s="9">
+        <v>2517</v>
       </c>
       <c r="I58" s="4">
         <v>313</v>
@@ -3216,7 +3230,7 @@
         <v>50</v>
       </c>
       <c r="M58" s="5">
-        <v>4.468</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3236,11 +3250,11 @@
       <c r="F59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="4">
-        <v>1.593</v>
-      </c>
-      <c r="H59" s="4">
-        <v>2.2669999999999999</v>
+      <c r="G59" s="9">
+        <v>1593</v>
+      </c>
+      <c r="H59" s="9">
+        <v>2267</v>
       </c>
       <c r="I59" s="4">
         <v>447</v>
@@ -3255,7 +3269,7 @@
         <v>2</v>
       </c>
       <c r="M59" s="5">
-        <v>4.4169999999999998</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3280,8 +3294,8 @@
       <c r="G60" s="4">
         <v>729</v>
       </c>
-      <c r="H60" s="4">
-        <v>1.159</v>
+      <c r="H60" s="9">
+        <v>1159</v>
       </c>
       <c r="I60" s="4">
         <v>937</v>
@@ -3296,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="M60" s="5">
-        <v>2.9910000000000001</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3335,7 +3349,7 @@
         <v>8</v>
       </c>
       <c r="M61" s="5">
-        <v>2.8109999999999999</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3376,7 +3390,7 @@
         <v>8</v>
       </c>
       <c r="M62" s="5">
-        <v>2.3460000000000001</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3415,7 +3429,7 @@
         <v>8</v>
       </c>
       <c r="M63" s="5">
-        <v>2.1840000000000002</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3456,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="M64" s="5">
-        <v>1.831</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3495,7 +3509,7 @@
         <v>13</v>
       </c>
       <c r="M65" s="5">
-        <v>1.641</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3536,7 +3550,7 @@
         <v>10</v>
       </c>
       <c r="M66" s="5">
-        <v>1.671</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3575,7 +3589,7 @@
         <v>17</v>
       </c>
       <c r="M67" s="5">
-        <v>1.5840000000000001</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3616,7 +3630,7 @@
         <v>23</v>
       </c>
       <c r="M68" s="5">
-        <v>1.3220000000000001</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3655,7 +3669,7 @@
         <v>16</v>
       </c>
       <c r="M69" s="5">
-        <v>1.2789999999999999</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3696,7 +3710,7 @@
         <v>9</v>
       </c>
       <c r="M70" s="5">
-        <v>1.0609999999999999</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3734,7 +3748,7 @@
       <c r="L71" s="4">
         <v>13</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="6">
         <v>986</v>
       </c>
     </row>
@@ -3775,7 +3789,7 @@
       <c r="L72" s="4">
         <v>6</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="6">
         <v>984</v>
       </c>
     </row>
@@ -3814,7 +3828,7 @@
       <c r="L73" s="4">
         <v>11</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="6">
         <v>938</v>
       </c>
     </row>
@@ -3855,7 +3869,7 @@
       <c r="L74" s="4">
         <v>4</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="6">
         <v>826</v>
       </c>
     </row>
@@ -3894,7 +3908,7 @@
       <c r="L75" s="4">
         <v>11</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="6">
         <v>820</v>
       </c>
     </row>
@@ -3935,7 +3949,7 @@
       <c r="L76" s="4">
         <v>2</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="6">
         <v>647</v>
       </c>
     </row>
@@ -3974,7 +3988,7 @@
       <c r="L77" s="4">
         <v>13</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="6">
         <v>639</v>
       </c>
     </row>
@@ -4015,7 +4029,7 @@
       <c r="L78" s="4">
         <v>1</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="6">
         <v>368</v>
       </c>
     </row>
@@ -4054,7 +4068,7 @@
       <c r="L79" s="4">
         <v>7</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="6">
         <v>513</v>
       </c>
     </row>
@@ -4095,7 +4109,7 @@
       <c r="L80" s="4">
         <v>6</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="6">
         <v>421</v>
       </c>
     </row>
@@ -4134,7 +4148,7 @@
       <c r="L81" s="4">
         <v>17</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="6">
         <v>747</v>
       </c>
     </row>
@@ -4142,39 +4156,39 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="5">
-        <v>2.5169999999999999</v>
+        <v>2517</v>
       </c>
       <c r="D82" s="5">
-        <v>2.7029999999999998</v>
+        <v>2703</v>
       </c>
       <c r="E82" s="5">
-        <v>4.593</v>
+        <v>4593</v>
       </c>
       <c r="F82" s="5">
-        <v>3.234</v>
+        <v>3234</v>
       </c>
       <c r="G82" s="5">
-        <v>7.9450000000000003</v>
+        <v>7945</v>
       </c>
       <c r="H82" s="5">
-        <v>10.861000000000001</v>
+        <v>10861</v>
       </c>
       <c r="I82" s="5">
-        <v>4.8769999999999998</v>
-      </c>
-      <c r="J82" s="5">
+        <v>4877</v>
+      </c>
+      <c r="J82" s="6">
         <v>479</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>21</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="6">
         <v>265</v>
       </c>
       <c r="M82" s="5">
-        <v>37.494999999999997</v>
+        <v>37495</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4235,8 +4249,8 @@
       <c r="F84" s="4">
         <v>1</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.167</v>
+      <c r="G84" s="9">
+        <v>1167</v>
       </c>
       <c r="H84" s="4">
         <v>966</v>
@@ -4254,7 +4268,7 @@
         <v>30</v>
       </c>
       <c r="M84" s="5">
-        <v>2.3809999999999998</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4274,8 +4288,8 @@
       <c r="F85" s="4">
         <v>1</v>
       </c>
-      <c r="G85" s="4">
-        <v>1.417</v>
+      <c r="G85" s="9">
+        <v>1417</v>
       </c>
       <c r="H85" s="4">
         <v>468</v>
@@ -4293,7 +4307,7 @@
         <v>4</v>
       </c>
       <c r="M85" s="5">
-        <v>2.206</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4334,7 +4348,7 @@
         <v>4</v>
       </c>
       <c r="M86" s="5">
-        <v>1.3879999999999999</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4373,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="M87" s="5">
-        <v>1.2529999999999999</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4413,7 +4427,7 @@
       <c r="L88" s="4">
         <v>2</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="6">
         <v>913</v>
       </c>
     </row>
@@ -4452,7 +4466,7 @@
       <c r="L89" s="4">
         <v>11</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="6">
         <v>803</v>
       </c>
     </row>
@@ -4493,7 +4507,7 @@
       <c r="L90" s="4">
         <v>12</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="6">
         <v>713</v>
       </c>
     </row>
@@ -4532,7 +4546,7 @@
       <c r="L91" s="4">
         <v>17</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="6">
         <v>668</v>
       </c>
     </row>
@@ -4573,7 +4587,7 @@
       <c r="L92" s="4">
         <v>3</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="6">
         <v>581</v>
       </c>
     </row>
@@ -4612,7 +4626,7 @@
       <c r="L93" s="4">
         <v>7</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="6">
         <v>663</v>
       </c>
     </row>
@@ -4653,7 +4667,7 @@
       <c r="L94" s="4">
         <v>8</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="6">
         <v>581</v>
       </c>
     </row>
@@ -4692,7 +4706,7 @@
       <c r="L95" s="4">
         <v>7</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="6">
         <v>510</v>
       </c>
     </row>
@@ -4733,7 +4747,7 @@
       <c r="L96" s="4">
         <v>7</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="6">
         <v>472</v>
       </c>
     </row>
@@ -4772,7 +4786,7 @@
       <c r="L97" s="4">
         <v>5</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="6">
         <v>459</v>
       </c>
     </row>
@@ -4813,7 +4827,7 @@
       <c r="L98" s="4">
         <v>2</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="6">
         <v>441</v>
       </c>
     </row>
@@ -4852,7 +4866,7 @@
       <c r="L99" s="4">
         <v>5</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="6">
         <v>419</v>
       </c>
     </row>
@@ -4893,7 +4907,7 @@
       <c r="L100" s="4">
         <v>2</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="6">
         <v>316</v>
       </c>
     </row>
@@ -4932,7 +4946,7 @@
       <c r="L101" s="4">
         <v>3</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="6">
         <v>317</v>
       </c>
     </row>
@@ -4973,7 +4987,7 @@
       <c r="L102" s="4">
         <v>3</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="6">
         <v>283</v>
       </c>
     </row>
@@ -5012,7 +5026,7 @@
       <c r="L103" s="4">
         <v>10</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="6">
         <v>285</v>
       </c>
     </row>
@@ -5053,7 +5067,7 @@
       <c r="L104" s="4">
         <v>3</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="6">
         <v>184</v>
       </c>
     </row>
@@ -5092,7 +5106,7 @@
       <c r="L105" s="4">
         <v>7</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="6">
         <v>254</v>
       </c>
     </row>
@@ -5133,7 +5147,7 @@
       <c r="L106" s="4">
         <v>2</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="6">
         <v>213</v>
       </c>
     </row>
@@ -5172,7 +5186,7 @@
       <c r="L107" s="4">
         <v>15</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="6">
         <v>352</v>
       </c>
     </row>
@@ -5180,39 +5194,39 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="5">
-        <v>2.5219999999999998</v>
+        <v>2522</v>
       </c>
       <c r="D108" s="5">
-        <v>1.7110000000000001</v>
+        <v>1711</v>
       </c>
       <c r="E108" s="5">
-        <v>2.0760000000000001</v>
-      </c>
-      <c r="F108" s="5">
+        <v>2076</v>
+      </c>
+      <c r="F108" s="6">
         <v>858</v>
       </c>
       <c r="G108" s="5">
-        <v>4.6289999999999996</v>
+        <v>4629</v>
       </c>
       <c r="H108" s="5">
-        <v>3.2570000000000001</v>
+        <v>3257</v>
       </c>
       <c r="I108" s="5">
-        <v>1.278</v>
-      </c>
-      <c r="J108" s="5">
+        <v>1278</v>
+      </c>
+      <c r="J108" s="6">
         <v>139</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="6">
         <v>4</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="6">
         <v>181</v>
       </c>
       <c r="M108" s="5">
-        <v>16.655000000000001</v>
+        <v>16655</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5273,14 +5287,14 @@
       <c r="F110" s="4">
         <v>5</v>
       </c>
-      <c r="G110" s="4">
-        <v>3.589</v>
-      </c>
-      <c r="H110" s="4">
-        <v>6.1779999999999999</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1.0209999999999999</v>
+      <c r="G110" s="9">
+        <v>3589</v>
+      </c>
+      <c r="H110" s="9">
+        <v>6178</v>
+      </c>
+      <c r="I110" s="9">
+        <v>1021</v>
       </c>
       <c r="J110" s="4">
         <v>14</v>
@@ -5292,7 +5306,7 @@
         <v>78</v>
       </c>
       <c r="M110" s="5">
-        <v>11.288</v>
+        <v>11288</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5312,14 +5326,14 @@
       <c r="F111" s="4">
         <v>3</v>
       </c>
-      <c r="G111" s="4">
-        <v>3.8069999999999999</v>
-      </c>
-      <c r="H111" s="4">
-        <v>5.73</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1.343</v>
+      <c r="G111" s="9">
+        <v>3807</v>
+      </c>
+      <c r="H111" s="9">
+        <v>5730</v>
+      </c>
+      <c r="I111" s="9">
+        <v>1343</v>
       </c>
       <c r="J111" s="4">
         <v>7</v>
@@ -5331,7 +5345,7 @@
         <v>39</v>
       </c>
       <c r="M111" s="5">
-        <v>11.614000000000001</v>
+        <v>11614</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5353,14 +5367,14 @@
       <c r="F112" s="4">
         <v>145</v>
       </c>
-      <c r="G112" s="4">
-        <v>1.6850000000000001</v>
-      </c>
-      <c r="H112" s="4">
-        <v>2.782</v>
-      </c>
-      <c r="I112" s="4">
-        <v>2.9470000000000001</v>
+      <c r="G112" s="9">
+        <v>1685</v>
+      </c>
+      <c r="H112" s="9">
+        <v>2782</v>
+      </c>
+      <c r="I112" s="9">
+        <v>2947</v>
       </c>
       <c r="J112" s="4">
         <v>233</v>
@@ -5372,7 +5386,7 @@
         <v>38</v>
       </c>
       <c r="M112" s="5">
-        <v>8.1660000000000004</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5392,14 +5406,14 @@
       <c r="F113" s="4">
         <v>270</v>
       </c>
-      <c r="G113" s="4">
-        <v>2.0840000000000001</v>
-      </c>
-      <c r="H113" s="4">
-        <v>1.679</v>
-      </c>
-      <c r="I113" s="4">
-        <v>3.0569999999999999</v>
+      <c r="G113" s="9">
+        <v>2084</v>
+      </c>
+      <c r="H113" s="9">
+        <v>1679</v>
+      </c>
+      <c r="I113" s="9">
+        <v>3057</v>
       </c>
       <c r="J113" s="4">
         <v>212</v>
@@ -5411,7 +5425,7 @@
         <v>46</v>
       </c>
       <c r="M113" s="5">
-        <v>8.52</v>
+        <v>8520</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5436,11 +5450,11 @@
       <c r="G114" s="4">
         <v>788</v>
       </c>
-      <c r="H114" s="4">
-        <v>2.169</v>
-      </c>
-      <c r="I114" s="4">
-        <v>3.028</v>
+      <c r="H114" s="9">
+        <v>2169</v>
+      </c>
+      <c r="I114" s="9">
+        <v>3028</v>
       </c>
       <c r="J114" s="4">
         <v>507</v>
@@ -5452,7 +5466,7 @@
         <v>24</v>
       </c>
       <c r="M114" s="5">
-        <v>7.6319999999999997</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5469,17 +5483,17 @@
       <c r="E115" s="4">
         <v>388</v>
       </c>
-      <c r="F115" s="4">
-        <v>1.167</v>
+      <c r="F115" s="9">
+        <v>1167</v>
       </c>
       <c r="G115" s="4">
         <v>784</v>
       </c>
-      <c r="H115" s="4">
-        <v>1.18</v>
-      </c>
-      <c r="I115" s="4">
-        <v>2.165</v>
+      <c r="H115" s="9">
+        <v>1180</v>
+      </c>
+      <c r="I115" s="9">
+        <v>2165</v>
       </c>
       <c r="J115" s="4">
         <v>307</v>
@@ -5491,7 +5505,7 @@
         <v>51</v>
       </c>
       <c r="M115" s="5">
-        <v>7.2249999999999996</v>
+        <v>7225</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5516,11 +5530,11 @@
       <c r="G116" s="4">
         <v>519</v>
       </c>
-      <c r="H116" s="4">
-        <v>1.748</v>
-      </c>
-      <c r="I116" s="4">
-        <v>1.905</v>
+      <c r="H116" s="9">
+        <v>1748</v>
+      </c>
+      <c r="I116" s="9">
+        <v>1905</v>
       </c>
       <c r="J116" s="4">
         <v>426</v>
@@ -5532,7 +5546,7 @@
         <v>24</v>
       </c>
       <c r="M116" s="5">
-        <v>5.9619999999999997</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5546,8 +5560,8 @@
       <c r="D117" s="4">
         <v>636</v>
       </c>
-      <c r="E117" s="4">
-        <v>1.022</v>
+      <c r="E117" s="9">
+        <v>1022</v>
       </c>
       <c r="F117" s="4">
         <v>665</v>
@@ -5555,8 +5569,8 @@
       <c r="G117" s="4">
         <v>558</v>
       </c>
-      <c r="H117" s="4">
-        <v>1.0760000000000001</v>
+      <c r="H117" s="9">
+        <v>1076</v>
       </c>
       <c r="I117" s="4">
         <v>933</v>
@@ -5571,7 +5585,7 @@
         <v>45</v>
       </c>
       <c r="M117" s="5">
-        <v>5.6219999999999999</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5596,11 +5610,11 @@
       <c r="G118" s="4">
         <v>819</v>
       </c>
-      <c r="H118" s="4">
-        <v>1.5529999999999999</v>
-      </c>
-      <c r="I118" s="4">
-        <v>1.3140000000000001</v>
+      <c r="H118" s="9">
+        <v>1553</v>
+      </c>
+      <c r="I118" s="9">
+        <v>1314</v>
       </c>
       <c r="J118" s="4">
         <v>288</v>
@@ -5612,7 +5626,7 @@
         <v>27</v>
       </c>
       <c r="M118" s="5">
-        <v>5.4</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5626,8 +5640,8 @@
       <c r="D119" s="4">
         <v>651</v>
       </c>
-      <c r="E119" s="4">
-        <v>1.3859999999999999</v>
+      <c r="E119" s="9">
+        <v>1386</v>
       </c>
       <c r="F119" s="4">
         <v>492</v>
@@ -5651,7 +5665,7 @@
         <v>35</v>
       </c>
       <c r="M119" s="5">
-        <v>5.2670000000000003</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5676,8 +5690,8 @@
       <c r="G120" s="4">
         <v>592</v>
       </c>
-      <c r="H120" s="4">
-        <v>1.0189999999999999</v>
+      <c r="H120" s="9">
+        <v>1019</v>
       </c>
       <c r="I120" s="4">
         <v>790</v>
@@ -5692,7 +5706,7 @@
         <v>39</v>
       </c>
       <c r="M120" s="5">
-        <v>3.569</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5706,8 +5720,8 @@
       <c r="D121" s="4">
         <v>379</v>
       </c>
-      <c r="E121" s="4">
-        <v>1.02</v>
+      <c r="E121" s="9">
+        <v>1020</v>
       </c>
       <c r="F121" s="4">
         <v>370</v>
@@ -5731,7 +5745,7 @@
         <v>25</v>
       </c>
       <c r="M121" s="5">
-        <v>3.4489999999999998</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5772,7 +5786,7 @@
         <v>22</v>
       </c>
       <c r="M122" s="5">
-        <v>3.2280000000000002</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5811,7 +5825,7 @@
         <v>22</v>
       </c>
       <c r="M123" s="5">
-        <v>2.9039999999999999</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5852,7 +5866,7 @@
         <v>8</v>
       </c>
       <c r="M124" s="5">
-        <v>2.6309999999999998</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5891,7 +5905,7 @@
         <v>23</v>
       </c>
       <c r="M125" s="5">
-        <v>2.4220000000000002</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5932,7 +5946,7 @@
         <v>13</v>
       </c>
       <c r="M126" s="5">
-        <v>1.849</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5971,7 +5985,7 @@
         <v>14</v>
       </c>
       <c r="M127" s="5">
-        <v>1.8140000000000001</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6012,7 +6026,7 @@
         <v>7</v>
       </c>
       <c r="M128" s="5">
-        <v>1.4379999999999999</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6051,7 +6065,7 @@
         <v>19</v>
       </c>
       <c r="M129" s="5">
-        <v>1.5880000000000001</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6091,7 +6105,7 @@
       <c r="L130" s="4">
         <v>6</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="6">
         <v>980</v>
       </c>
     </row>
@@ -6131,7 +6145,7 @@
         <v>15</v>
       </c>
       <c r="M131" s="5">
-        <v>1.2629999999999999</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6172,7 +6186,7 @@
         <v>7</v>
       </c>
       <c r="M132" s="5">
-        <v>1.0009999999999999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6180,8 +6194,8 @@
       <c r="B133" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="4">
-        <v>1.375</v>
+      <c r="C133" s="9">
+        <v>1375</v>
       </c>
       <c r="D133" s="4">
         <v>193</v>
@@ -6211,46 +6225,46 @@
         <v>25</v>
       </c>
       <c r="M133" s="5">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="5">
-        <v>7.2089999999999996</v>
+        <v>7209</v>
       </c>
       <c r="D134" s="5">
-        <v>6.5910000000000002</v>
+        <v>6591</v>
       </c>
       <c r="E134" s="5">
-        <v>11.119</v>
+        <v>11119</v>
       </c>
       <c r="F134" s="5">
-        <v>7.9740000000000002</v>
+        <v>7974</v>
       </c>
       <c r="G134" s="5">
-        <v>19.658999999999999</v>
+        <v>19659</v>
       </c>
       <c r="H134" s="5">
-        <v>29.792000000000002</v>
+        <v>29792</v>
       </c>
       <c r="I134" s="5">
-        <v>20.721</v>
+        <v>20721</v>
       </c>
       <c r="J134" s="5">
-        <v>2.4590000000000001</v>
-      </c>
-      <c r="K134" s="5">
+        <v>2459</v>
+      </c>
+      <c r="K134" s="6">
         <v>456</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="6">
         <v>652</v>
       </c>
       <c r="M134" s="5">
-        <v>106.63200000000001</v>
+        <v>106632</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6330,7 +6344,7 @@
         <v>15</v>
       </c>
       <c r="M136" s="5">
-        <v>1.7210000000000001</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6369,7 +6383,7 @@
         <v>2</v>
       </c>
       <c r="M137" s="5">
-        <v>1.5649999999999999</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6409,7 +6423,7 @@
       <c r="L138" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="6">
         <v>935</v>
       </c>
     </row>
@@ -6448,7 +6462,7 @@
       <c r="L139" s="4">
         <v>2</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="6">
         <v>676</v>
       </c>
     </row>
@@ -6489,7 +6503,7 @@
       <c r="L140" s="4">
         <v>4</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="6">
         <v>681</v>
       </c>
     </row>
@@ -6528,7 +6542,7 @@
       <c r="L141" s="4">
         <v>9</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="6">
         <v>527</v>
       </c>
     </row>
@@ -6569,7 +6583,7 @@
       <c r="L142" s="4">
         <v>4</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="6">
         <v>446</v>
       </c>
     </row>
@@ -6608,7 +6622,7 @@
       <c r="L143" s="4">
         <v>5</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="6">
         <v>411</v>
       </c>
     </row>
@@ -6649,7 +6663,7 @@
       <c r="L144" s="4">
         <v>2</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="6">
         <v>479</v>
       </c>
     </row>
@@ -6688,7 +6702,7 @@
       <c r="L145" s="4">
         <v>8</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="6">
         <v>527</v>
       </c>
     </row>
@@ -6729,7 +6743,7 @@
       <c r="L146" s="4">
         <v>2</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="6">
         <v>459</v>
       </c>
     </row>
@@ -6768,7 +6782,7 @@
       <c r="L147" s="4">
         <v>3</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="6">
         <v>414</v>
       </c>
     </row>
@@ -6809,7 +6823,7 @@
       <c r="L148" s="4">
         <v>2</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="6">
         <v>358</v>
       </c>
     </row>
@@ -6848,7 +6862,7 @@
       <c r="L149" s="4">
         <v>5</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="6">
         <v>332</v>
       </c>
     </row>
@@ -6889,7 +6903,7 @@
       <c r="L150" s="4">
         <v>3</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="6">
         <v>353</v>
       </c>
     </row>
@@ -6928,7 +6942,7 @@
       <c r="L151" s="4">
         <v>8</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="6">
         <v>361</v>
       </c>
     </row>
@@ -6969,7 +6983,7 @@
       <c r="L152" s="4">
         <v>1</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="6">
         <v>298</v>
       </c>
     </row>
@@ -7008,7 +7022,7 @@
       <c r="L153" s="4">
         <v>4</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="6">
         <v>249</v>
       </c>
     </row>
@@ -7049,7 +7063,7 @@
       <c r="L154" s="4">
         <v>1</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="6">
         <v>227</v>
       </c>
     </row>
@@ -7088,7 +7102,7 @@
       <c r="L155" s="4">
         <v>7</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="6">
         <v>251</v>
       </c>
     </row>
@@ -7129,7 +7143,7 @@
       <c r="L156" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="6">
         <v>181</v>
       </c>
     </row>
@@ -7168,7 +7182,7 @@
       <c r="L157" s="4">
         <v>4</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="6">
         <v>239</v>
       </c>
     </row>
@@ -7209,7 +7223,7 @@
       <c r="L158" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="6">
         <v>207</v>
       </c>
     </row>
@@ -7248,7 +7262,7 @@
       <c r="L159" s="4">
         <v>9</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="6">
         <v>352</v>
       </c>
     </row>
@@ -7256,39 +7270,39 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="5">
-        <v>1.4359999999999999</v>
+        <v>1436</v>
       </c>
       <c r="D160" s="5">
-        <v>1.081</v>
+        <v>1081</v>
       </c>
       <c r="E160" s="5">
-        <v>1.911</v>
-      </c>
-      <c r="F160" s="5">
+        <v>1911</v>
+      </c>
+      <c r="F160" s="6">
         <v>925</v>
       </c>
       <c r="G160" s="5">
-        <v>3.5539999999999998</v>
+        <v>3554</v>
       </c>
       <c r="H160" s="5">
-        <v>2.4129999999999998</v>
-      </c>
-      <c r="I160" s="5">
+        <v>2413</v>
+      </c>
+      <c r="I160" s="6">
         <v>774</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160" s="6">
         <v>52</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="6">
         <v>3</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="6">
         <v>100</v>
       </c>
       <c r="M160" s="5">
-        <v>12.249000000000001</v>
+        <v>12249</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7367,7 +7381,7 @@
       <c r="L162" s="4">
         <v>2</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="6">
         <v>411</v>
       </c>
     </row>
@@ -7406,7 +7420,7 @@
       <c r="L163" s="4">
         <v>2</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="6">
         <v>269</v>
       </c>
     </row>
@@ -7447,7 +7461,7 @@
       <c r="L164" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="6">
         <v>227</v>
       </c>
     </row>
@@ -7486,7 +7500,7 @@
       <c r="L165" s="4">
         <v>2</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="6">
         <v>190</v>
       </c>
     </row>
@@ -7527,7 +7541,7 @@
       <c r="L166" s="4">
         <v>3</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="6">
         <v>145</v>
       </c>
     </row>
@@ -7566,7 +7580,7 @@
       <c r="L167" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="6">
         <v>124</v>
       </c>
     </row>
@@ -7607,7 +7621,7 @@
       <c r="L168" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="6">
         <v>112</v>
       </c>
     </row>
@@ -7646,7 +7660,7 @@
       <c r="L169" s="4">
         <v>2</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="6">
         <v>103</v>
       </c>
     </row>
@@ -7687,7 +7701,7 @@
       <c r="L170" s="4">
         <v>1</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="6">
         <v>112</v>
       </c>
     </row>
@@ -7726,7 +7740,7 @@
       <c r="L171" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="6">
         <v>92</v>
       </c>
     </row>
@@ -7767,7 +7781,7 @@
       <c r="L172" s="4">
         <v>2</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="6">
         <v>70</v>
       </c>
     </row>
@@ -7806,7 +7820,7 @@
       <c r="L173" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="6">
         <v>86</v>
       </c>
     </row>
@@ -7847,7 +7861,7 @@
       <c r="L174" s="4">
         <v>2</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="6">
         <v>88</v>
       </c>
     </row>
@@ -7886,7 +7900,7 @@
       <c r="L175" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="6">
         <v>77</v>
       </c>
     </row>
@@ -7927,7 +7941,7 @@
       <c r="L176" s="4">
         <v>1</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="6">
         <v>91</v>
       </c>
     </row>
@@ -7966,7 +7980,7 @@
       <c r="L177" s="4">
         <v>1</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="6">
         <v>54</v>
       </c>
     </row>
@@ -8007,7 +8021,7 @@
       <c r="L178" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="6">
         <v>45</v>
       </c>
     </row>
@@ -8046,7 +8060,7 @@
       <c r="L179" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="6">
         <v>63</v>
       </c>
     </row>
@@ -8087,7 +8101,7 @@
       <c r="L180" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="6">
         <v>49</v>
       </c>
     </row>
@@ -8126,7 +8140,7 @@
       <c r="L181" s="4">
         <v>1</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="6">
         <v>50</v>
       </c>
     </row>
@@ -8167,7 +8181,7 @@
       <c r="L182" s="4">
         <v>1</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="6">
         <v>40</v>
       </c>
     </row>
@@ -8206,7 +8220,7 @@
       <c r="L183" s="4">
         <v>2</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="6">
         <v>52</v>
       </c>
     </row>
@@ -8247,7 +8261,7 @@
       <c r="L184" s="4">
         <v>2</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="6">
         <v>56</v>
       </c>
     </row>
@@ -8286,7 +8300,7 @@
       <c r="L185" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="6">
         <v>86</v>
       </c>
     </row>
@@ -8294,39 +8308,49 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="6">
         <v>230</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="6">
         <v>154</v>
       </c>
-      <c r="E186" s="5">
+      <c r="E186" s="6">
         <v>350</v>
       </c>
-      <c r="F186" s="5">
+      <c r="F186" s="6">
         <v>243</v>
       </c>
-      <c r="G186" s="5">
+      <c r="G186" s="6">
         <v>594</v>
       </c>
-      <c r="H186" s="5">
+      <c r="H186" s="6">
         <v>746</v>
       </c>
-      <c r="I186" s="5">
+      <c r="I186" s="6">
         <v>327</v>
       </c>
-      <c r="J186" s="5">
+      <c r="J186" s="6">
         <v>23</v>
       </c>
-      <c r="K186" s="5">
-        <v>1</v>
-      </c>
-      <c r="L186" s="5">
+      <c r="K186" s="6">
+        <v>1</v>
+      </c>
+      <c r="L186" s="6">
         <v>24</v>
       </c>
       <c r="M186" s="5">
-        <v>2.6920000000000002</v>
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
